--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject14.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject14.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,16 +131,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>0</v>
+        <v>0.59737450417429927</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
       </c>
       <c r="E1" s="0">
-        <v>0</v>
+        <v>0.54314864803700136</v>
       </c>
       <c r="F1" s="0">
         <v>0</v>
@@ -191,7 +191,7 @@
         <v>0</v>
       </c>
       <c r="V1" s="0">
-        <v>0</v>
+        <v>0.67859526919441371</v>
       </c>
       <c r="W1" s="0">
         <v>0</v>
@@ -242,7 +242,7 @@
         <v>0</v>
       </c>
       <c r="AM1" s="0">
-        <v>0</v>
+        <v>0.82797711191323697</v>
       </c>
       <c r="AN1" s="0">
         <v>0</v>
@@ -260,7 +260,7 @@
         <v>0</v>
       </c>
       <c r="AS1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT1" s="0">
         <v>0</v>
@@ -287,7 +287,7 @@
         <v>0</v>
       </c>
       <c r="BB1" s="0">
-        <v>0</v>
+        <v>0.56126316181239022</v>
       </c>
       <c r="BC1" s="0">
         <v>0</v>
@@ -311,7 +311,7 @@
         <v>0</v>
       </c>
       <c r="BJ1" s="0">
-        <v>0</v>
+        <v>0.86341180425350761</v>
       </c>
       <c r="BK1" s="0">
         <v>0</v>
@@ -334,7 +334,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -370,10 +370,10 @@
         <v>0</v>
       </c>
       <c r="M2" s="0">
-        <v>0</v>
+        <v>0.62936369118760171</v>
       </c>
       <c r="N2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="0">
         <v>0</v>
@@ -481,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="AX2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="0">
         <v>0</v>
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="BB2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC2" s="0">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="BG2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH2" s="0">
         <v>0</v>
@@ -532,15 +532,15 @@
         <v>0</v>
       </c>
       <c r="BO2" s="0">
-        <v>0</v>
+        <v>0.8716787027593691</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0</v>
+        <v>0.74313608499204076</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="0">
-        <v>0</v>
+        <v>0.51932823810996642</v>
       </c>
       <c r="O3" s="0">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="AA3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="0">
         <v>0</v>
@@ -693,13 +693,13 @@
         <v>0</v>
       </c>
       <c r="AZ3" s="0">
-        <v>1</v>
+        <v>0.84410566978133095</v>
       </c>
       <c r="BA3" s="0">
         <v>0</v>
       </c>
       <c r="BB3" s="0">
-        <v>0</v>
+        <v>0.71394763039116249</v>
       </c>
       <c r="BC3" s="0">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="BK3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL3" s="0">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0</v>
+        <v>0.91967427961851045</v>
       </c>
       <c r="F4" s="0">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="K4" s="0">
-        <v>0</v>
+        <v>0.80198541782281407</v>
       </c>
       <c r="L4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="0">
         <v>0</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="V4" s="0">
-        <v>0</v>
+        <v>0.56035016754342815</v>
       </c>
       <c r="W4" s="0">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="AB4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="0">
         <v>0</v>
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="AW4" s="0">
-        <v>0</v>
+        <v>0.78642651342466918</v>
       </c>
       <c r="AX4" s="0">
         <v>0</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0</v>
+        <v>0.56536580948380344</v>
       </c>
       <c r="B5" s="0">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0</v>
+        <v>0.99115169074890863</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="0">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="0">
-        <v>0</v>
+        <v>0.76606715786392388</v>
       </c>
       <c r="V5" s="0">
         <v>0</v>
@@ -1138,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="BK5" s="0">
-        <v>0</v>
+        <v>0.62096852272240499</v>
       </c>
       <c r="BL5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM5" s="0">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="AN6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="0">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="BA6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="0">
         <v>0</v>
@@ -1329,13 +1329,13 @@
         <v>0</v>
       </c>
       <c r="BF6" s="0">
-        <v>0</v>
+        <v>0.79052418733727414</v>
       </c>
       <c r="BG6" s="0">
         <v>0</v>
       </c>
       <c r="BH6" s="0">
-        <v>0</v>
+        <v>0.89802538701520318</v>
       </c>
       <c r="BI6" s="0">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="BO6" s="0">
-        <v>0</v>
+        <v>0.99506994792473558</v>
       </c>
       <c r="BP6" s="0">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0</v>
+        <v>0.7428160416726115</v>
       </c>
       <c r="L7" s="0">
         <v>0</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="0">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" s="0">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="AB7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="0">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="AI7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="0">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="AY7" s="0">
-        <v>0</v>
+        <v>0.61709836835270959</v>
       </c>
       <c r="AZ7" s="0">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="0">
-        <v>0</v>
+        <v>0.59492240568040611</v>
       </c>
       <c r="M8" s="0">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="0">
         <v>0</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="0">
-        <v>0</v>
+        <v>0.76261615110347769</v>
       </c>
       <c r="W8" s="0">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="AO8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP8" s="0">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="AR8" s="0">
-        <v>0</v>
+        <v>0.57560287178476988</v>
       </c>
       <c r="AS8" s="0">
         <v>0</v>
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="BG8" s="0">
-        <v>0</v>
+        <v>0.54388199685214333</v>
       </c>
       <c r="BH8" s="0">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="0">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="0">
-        <v>0</v>
+        <v>0.70177446764466722</v>
       </c>
       <c r="N9" s="0">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="AM9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN9" s="0">
         <v>0</v>
@@ -1917,13 +1917,13 @@
         <v>0</v>
       </c>
       <c r="AV9" s="0">
-        <v>0</v>
+        <v>0.59031572607854277</v>
       </c>
       <c r="AW9" s="0">
         <v>0</v>
       </c>
       <c r="AX9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="0">
         <v>0</v>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="0">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>0</v>
+        <v>0.81474377883800619</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" s="0">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>0</v>
       </c>
       <c r="Y10" s="0">
-        <v>0</v>
+        <v>0.53740382231104422</v>
       </c>
       <c r="Z10" s="0">
         <v>0</v>
       </c>
       <c r="AA10" s="0">
-        <v>0</v>
+        <v>0.51506494078188514</v>
       </c>
       <c r="AB10" s="0">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="AU10" s="0">
-        <v>0</v>
+        <v>0.63426843902598351</v>
       </c>
       <c r="AV10" s="0">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="BI10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ10" s="0">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="BO10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP10" s="0">
         <v>0</v>
@@ -2197,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0</v>
+        <v>0.66088287615484786</v>
       </c>
       <c r="E11" s="0">
         <v>0</v>
@@ -2206,10 +2206,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="0">
-        <v>0</v>
+        <v>0.86940810182621575</v>
       </c>
       <c r="H11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="0">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="0">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="X11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="0">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="AK11" s="0">
-        <v>0</v>
+        <v>0.91811297683924975</v>
       </c>
       <c r="AL11" s="0">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="AN11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="0">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="AT11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="0">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="AZ11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="0">
         <v>0</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="0">
         <v>0</v>
@@ -2415,13 +2415,13 @@
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>0</v>
+        <v>0.85123647095088784</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0</v>
+        <v>0.8330522142437401</v>
       </c>
       <c r="K12" s="0">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="AH12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="0">
         <v>0</v>
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="AL12" s="0">
-        <v>0</v>
+        <v>0.62508145765941747</v>
       </c>
       <c r="AM12" s="0">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="AV12" s="0">
-        <v>0</v>
+        <v>0.59956040981701508</v>
       </c>
       <c r="AW12" s="0">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="AY12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="0">
         <v>0</v>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="BD12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE12" s="0">
         <v>0</v>
@@ -2589,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="BN12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO12" s="0">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="0">
-        <v>0</v>
+        <v>0.80008323777336865</v>
       </c>
       <c r="C13" s="0">
         <v>0</v>
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="0">
-        <v>0</v>
+        <v>0.65735413596570202</v>
       </c>
       <c r="J13" s="0">
         <v>0</v>
@@ -2642,13 +2642,13 @@
         <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
       </c>
       <c r="Q13" s="0">
-        <v>1</v>
+        <v>0.75632590573082492</v>
       </c>
       <c r="R13" s="0">
         <v>0</v>
@@ -2705,13 +2705,13 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="0">
-        <v>0</v>
+        <v>0.52980240965556169</v>
       </c>
       <c r="AK13" s="0">
-        <v>0</v>
+        <v>0.712165967548545</v>
       </c>
       <c r="AL13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="0">
         <v>0</v>
@@ -2735,10 +2735,10 @@
         <v>0</v>
       </c>
       <c r="AT13" s="0">
-        <v>0</v>
+        <v>0.5586983527733913</v>
       </c>
       <c r="AU13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV13" s="0">
         <v>0</v>
@@ -2753,13 +2753,13 @@
         <v>0</v>
       </c>
       <c r="AZ13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="0">
         <v>0</v>
       </c>
       <c r="BB13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC13" s="0">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="BP13" s="0">
-        <v>0</v>
+        <v>0.634437916570324</v>
       </c>
     </row>
     <row r="14">
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="0">
-        <v>0</v>
+        <v>0.81237450520765198</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
@@ -2824,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="0">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="0">
-        <v>0</v>
+        <v>0.83986445102276286</v>
       </c>
       <c r="R14" s="0">
         <v>0</v>
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="0">
-        <v>0</v>
+        <v>0.94095543709559415</v>
       </c>
       <c r="AB14" s="0">
         <v>0</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="AD14" s="0">
-        <v>0</v>
+        <v>0.9051544707556759</v>
       </c>
       <c r="AE14" s="0">
         <v>0</v>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="AN14" s="0">
-        <v>0</v>
+        <v>0.90602254115415792</v>
       </c>
       <c r="AO14" s="0">
         <v>0</v>
@@ -2977,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="BF14" s="0">
-        <v>0</v>
+        <v>0.61867426551668792</v>
       </c>
       <c r="BG14" s="0">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="0">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="AD15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="0">
         <v>0</v>
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="AP15" s="0">
-        <v>0</v>
+        <v>0.90451469557783282</v>
       </c>
       <c r="AQ15" s="0">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="AW15" s="0">
-        <v>0</v>
+        <v>0.71364519307832308</v>
       </c>
       <c r="AX15" s="0">
         <v>0</v>
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="BF15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG15" s="0">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="BJ15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK15" s="0">
         <v>0</v>
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="BN15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP15" s="0">
         <v>0</v>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0.69733574741330795</v>
       </c>
       <c r="R16" s="0">
         <v>0</v>
@@ -3302,10 +3302,10 @@
         <v>0</v>
       </c>
       <c r="AC16" s="0">
-        <v>0</v>
+        <v>0.88918122495868401</v>
       </c>
       <c r="AD16" s="0">
-        <v>0</v>
+        <v>0.73135118714557867</v>
       </c>
       <c r="AE16" s="0">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="BG16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH16" s="0">
         <v>0</v>
@@ -3413,13 +3413,13 @@
         <v>0</v>
       </c>
       <c r="BN16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO16" s="0">
         <v>0</v>
       </c>
       <c r="BP16" s="0">
-        <v>0</v>
+        <v>0.87701426959868589</v>
       </c>
     </row>
     <row r="17">
@@ -3454,22 +3454,22 @@
         <v>0</v>
       </c>
       <c r="K17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="0">
         <v>0</v>
       </c>
       <c r="M17" s="0">
-        <v>1</v>
+        <v>0.98786733439634822</v>
       </c>
       <c r="N17" s="0">
-        <v>0</v>
+        <v>0.78608946181811734</v>
       </c>
       <c r="O17" s="0">
         <v>0</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0.66610156430688516</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="AF17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="0">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="AT17" s="0">
-        <v>0</v>
+        <v>0.90808159593845972</v>
       </c>
       <c r="AU17" s="0">
         <v>0</v>
@@ -3690,10 +3690,10 @@
         <v>0</v>
       </c>
       <c r="U18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" s="0">
-        <v>0</v>
+        <v>0.77553201441433806</v>
       </c>
       <c r="W18" s="0">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="0">
-        <v>0</v>
+        <v>0.69579896546826381</v>
       </c>
       <c r="AD18" s="0">
         <v>0</v>
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="AI18" s="0">
-        <v>0</v>
+        <v>0.92620084763253874</v>
       </c>
       <c r="AJ18" s="0">
         <v>0</v>
@@ -3768,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="AU18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV18" s="0">
         <v>0</v>
@@ -3777,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="AX18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="0">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="0">
         <v>0</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="0">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="Y19" s="0">
-        <v>0</v>
+        <v>0.80364506935476532</v>
       </c>
       <c r="Z19" s="0">
         <v>0</v>
@@ -3929,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="AF19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19" s="0">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="BE19" s="0">
-        <v>0</v>
+        <v>0.99509760704204031</v>
       </c>
       <c r="BF19" s="0">
         <v>0</v>
@@ -4096,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4117,10 +4117,10 @@
         <v>0</v>
       </c>
       <c r="Z20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="0">
-        <v>0</v>
+        <v>0.86333626268370567</v>
       </c>
       <c r="AB20" s="0">
         <v>0</v>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="AF20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="0">
         <v>0</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="AI20" s="0">
-        <v>0</v>
+        <v>0.9372112372288266</v>
       </c>
       <c r="AJ20" s="0">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="AZ20" s="0">
-        <v>0</v>
+        <v>0.9907503054867941</v>
       </c>
       <c r="BA20" s="0">
         <v>0</v>
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="BI20" s="0">
-        <v>0</v>
+        <v>0.52154406276137821</v>
       </c>
       <c r="BJ20" s="0">
         <v>0</v>
@@ -4260,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="0">
-        <v>0</v>
+        <v>0.63731578543273526</v>
       </c>
       <c r="F21" s="0">
         <v>0</v>
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" s="0">
         <v>0</v>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>0</v>
+        <v>0.59464539207506573</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="AF21" s="0">
-        <v>1</v>
+        <v>0.89109608177281285</v>
       </c>
       <c r="AG21" s="0">
         <v>0</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="AX21" s="0">
-        <v>0</v>
+        <v>0.50959058667691248</v>
       </c>
       <c r="AY21" s="0">
         <v>0</v>
@@ -4413,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="BD21" s="0">
-        <v>0</v>
+        <v>0.80563455970062292</v>
       </c>
       <c r="BE21" s="0">
         <v>0</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0</v>
+        <v>0.69041005924920229</v>
       </c>
       <c r="B22" s="0">
         <v>0</v>
@@ -4463,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="0">
-        <v>0</v>
+        <v>0.9158183680731049</v>
       </c>
       <c r="E22" s="0">
         <v>0</v>
@@ -4472,16 +4472,16 @@
         <v>0</v>
       </c>
       <c r="G22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="0">
-        <v>0</v>
+        <v>0.85729062000626044</v>
       </c>
       <c r="I22" s="0">
         <v>0</v>
       </c>
       <c r="J22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="0">
         <v>0</v>
@@ -4505,13 +4505,13 @@
         <v>0</v>
       </c>
       <c r="R22" s="0">
-        <v>0</v>
+        <v>0.98181471047235092</v>
       </c>
       <c r="S22" s="0">
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="0">
         <v>0</v>
@@ -4541,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="AD22" s="0">
-        <v>0</v>
+        <v>0.62227264188584819</v>
       </c>
       <c r="AE22" s="0">
         <v>0</v>
@@ -4601,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="AX22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="0">
         <v>0</v>
@@ -4616,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="BC22" s="0">
-        <v>0</v>
+        <v>0.82477677474606348</v>
       </c>
       <c r="BD22" s="0">
         <v>0</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="BJ22" s="0">
-        <v>0</v>
+        <v>0.57731567062906808</v>
       </c>
       <c r="BK22" s="0">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>0</v>
+        <v>0.93539002729111342</v>
       </c>
       <c r="V23" s="0">
         <v>0</v>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="0">
         <v>0</v>
@@ -4771,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="AL23" s="0">
-        <v>0</v>
+        <v>0.98385375198927572</v>
       </c>
       <c r="AM23" s="0">
         <v>0</v>
@@ -4810,13 +4810,13 @@
         <v>0</v>
       </c>
       <c r="AY23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ23" s="0">
         <v>0</v>
       </c>
       <c r="BA23" s="0">
-        <v>0</v>
+        <v>0.75280551669852191</v>
       </c>
       <c r="BB23" s="0">
         <v>0</v>
@@ -4896,7 +4896,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="0">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>0</v>
+        <v>0.60075380827460212</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -4959,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="AF24" s="0">
-        <v>0</v>
+        <v>0.83460211007016194</v>
       </c>
       <c r="AG24" s="0">
         <v>0</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="AO24" s="0">
-        <v>0</v>
+        <v>0.5600394915564415</v>
       </c>
       <c r="AP24" s="0">
         <v>0</v>
@@ -5007,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="AV24" s="0">
-        <v>0</v>
+        <v>0.91267714603510774</v>
       </c>
       <c r="AW24" s="0">
         <v>0</v>
@@ -5025,10 +5025,10 @@
         <v>0</v>
       </c>
       <c r="BB24" s="0">
-        <v>1</v>
+        <v>0.65598489296712892</v>
       </c>
       <c r="BC24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="0">
         <v>0</v>
@@ -5067,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="BP24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -5099,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="0">
-        <v>0</v>
+        <v>0.90703790630522096</v>
       </c>
       <c r="K25" s="0">
         <v>0</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="S25" s="0">
-        <v>0</v>
+        <v>0.76934585652391352</v>
       </c>
       <c r="T25" s="0">
         <v>0</v>
@@ -5189,10 +5189,10 @@
         <v>0</v>
       </c>
       <c r="AN25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="0">
-        <v>0</v>
+        <v>0.83512608846959646</v>
       </c>
       <c r="AP25" s="0">
         <v>0</v>
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="AZ25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA25" s="0">
         <v>0</v>
@@ -5243,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="BF25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG25" s="0">
         <v>0</v>
@@ -5335,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" s="0">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>0</v>
+        <v>0.60309862927422864</v>
       </c>
       <c r="Y26" s="0">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5392,7 +5392,7 @@
         <v>0</v>
       </c>
       <c r="AM26" s="0">
-        <v>0</v>
+        <v>0.78245650500395658</v>
       </c>
       <c r="AN26" s="0">
         <v>0</v>
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="AQ26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR26" s="0">
         <v>0</v>
@@ -5431,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="AZ26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA26" s="0">
         <v>0</v>
@@ -5464,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="BK26" s="0">
-        <v>0</v>
+        <v>0.92939651401379964</v>
       </c>
       <c r="BL26" s="0">
         <v>0</v>
@@ -5490,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="0">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="0">
-        <v>0</v>
+        <v>0.88025587314424081</v>
       </c>
       <c r="K27" s="0">
         <v>0</v>
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="0">
-        <v>0</v>
+        <v>0.84092921068102888</v>
       </c>
       <c r="O27" s="0">
         <v>0</v>
@@ -5541,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="0">
-        <v>0</v>
+        <v>0.86843099346119756</v>
       </c>
       <c r="U27" s="0">
         <v>0</v>
@@ -5565,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="0">
         <v>0</v>
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="AE27" s="0">
-        <v>0</v>
+        <v>0.77934396178047638</v>
       </c>
       <c r="AF27" s="0">
         <v>0</v>
@@ -5595,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="AL27" s="0">
-        <v>0</v>
+        <v>0.67263927700395665</v>
       </c>
       <c r="AM27" s="0">
         <v>0</v>
@@ -5655,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="BF27" s="0">
-        <v>0</v>
+        <v>0.71262278181204175</v>
       </c>
       <c r="BG27" s="0">
         <v>0</v>
@@ -5673,7 +5673,7 @@
         <v>0</v>
       </c>
       <c r="BL27" s="0">
-        <v>0</v>
+        <v>0.83701457405391544</v>
       </c>
       <c r="BM27" s="0">
         <v>0</v>
@@ -5699,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="0">
         <v>0</v>
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="0">
         <v>0</v>
@@ -5765,16 +5765,16 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>0</v>
+        <v>0.94181490958186387</v>
       </c>
       <c r="AD28" s="0">
         <v>0</v>
@@ -5789,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="AH28" s="0">
-        <v>0</v>
+        <v>0.55438759721779729</v>
       </c>
       <c r="AI28" s="0">
         <v>0</v>
@@ -5858,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="BE28" s="0">
-        <v>0</v>
+        <v>0.9653548853643551</v>
       </c>
       <c r="BF28" s="0">
         <v>0</v>
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="BM28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN28" s="0">
         <v>0</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="BP28" s="0">
-        <v>0</v>
+        <v>0.58622123079971833</v>
       </c>
     </row>
     <row r="29">
@@ -5941,13 +5941,13 @@
         <v>0</v>
       </c>
       <c r="P29" s="0">
-        <v>0</v>
+        <v>0.72955762461237583</v>
       </c>
       <c r="Q29" s="0">
         <v>0</v>
       </c>
       <c r="R29" s="0">
-        <v>0</v>
+        <v>0.9154585480550983</v>
       </c>
       <c r="S29" s="0">
         <v>0</v>
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="AB29" s="0">
-        <v>0</v>
+        <v>0.552449285939702</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6019,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="AP29" s="0">
-        <v>0</v>
+        <v>0.97134081830867147</v>
       </c>
       <c r="AQ29" s="0">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="AS29" s="0">
-        <v>0</v>
+        <v>0.93422316538517136</v>
       </c>
       <c r="AT29" s="0">
         <v>0</v>
@@ -6037,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="AV29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW29" s="0">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="BJ29" s="0">
-        <v>0</v>
+        <v>0.77318101596469191</v>
       </c>
       <c r="BK29" s="0">
-        <v>0</v>
+        <v>0.74606689396163395</v>
       </c>
       <c r="BL29" s="0">
         <v>0</v>
@@ -6091,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="BN29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO29" s="0">
         <v>0</v>
@@ -6141,13 +6141,13 @@
         <v>0</v>
       </c>
       <c r="N30" s="0">
-        <v>0</v>
+        <v>0.67221116259856273</v>
       </c>
       <c r="O30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" s="0">
-        <v>0</v>
+        <v>0.7171214935873379</v>
       </c>
       <c r="Q30" s="0">
         <v>0</v>
@@ -6165,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="0">
-        <v>0</v>
+        <v>0.79917959871674471</v>
       </c>
       <c r="W30" s="0">
         <v>0</v>
@@ -6210,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="AK30" s="0">
-        <v>1</v>
+        <v>0.79746876712663695</v>
       </c>
       <c r="AL30" s="0">
         <v>0</v>
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="AS30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT30" s="0">
         <v>0</v>
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="BK30" s="0">
-        <v>0</v>
+        <v>0.98599920461972101</v>
       </c>
       <c r="BL30" s="0">
         <v>0</v>
@@ -6386,13 +6386,13 @@
         <v>0</v>
       </c>
       <c r="AA31" s="0">
-        <v>0</v>
+        <v>0.99074084763046288</v>
       </c>
       <c r="AB31" s="0">
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="0">
         <v>0</v>
@@ -6401,10 +6401,10 @@
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>0</v>
+        <v>0.71092525583303523</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6431,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="AP31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ31" s="0">
         <v>0</v>
@@ -6443,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="AT31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU31" s="0">
         <v>0</v>
@@ -6562,19 +6562,19 @@
         <v>0</v>
       </c>
       <c r="Q32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32" s="0">
         <v>0</v>
       </c>
       <c r="S32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32" s="0">
-        <v>1</v>
+        <v>0.6549428735774866</v>
       </c>
       <c r="V32" s="0">
         <v>0</v>
@@ -6583,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="0">
-        <v>0</v>
+        <v>0.62853747838914187</v>
       </c>
       <c r="Y32" s="0">
         <v>0</v>
@@ -6604,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
@@ -6616,19 +6616,19 @@
         <v>0</v>
       </c>
       <c r="AI32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ32" s="0">
         <v>0</v>
       </c>
       <c r="AK32" s="0">
-        <v>0</v>
+        <v>0.71973705016101497</v>
       </c>
       <c r="AL32" s="0">
         <v>0</v>
       </c>
       <c r="AM32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN32" s="0">
         <v>0</v>
@@ -6637,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="AP32" s="0">
-        <v>0</v>
+        <v>0.93955129396091031</v>
       </c>
       <c r="AQ32" s="0">
         <v>0</v>
@@ -6709,13 +6709,13 @@
         <v>0</v>
       </c>
       <c r="BN32" s="0">
-        <v>0</v>
+        <v>0.5333712220120066</v>
       </c>
       <c r="BO32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP32" s="0">
-        <v>0</v>
+        <v>0.95414669999341717</v>
       </c>
     </row>
     <row r="33">
@@ -6768,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" s="0">
         <v>0</v>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>0</v>
+        <v>0.6120843187971523</v>
       </c>
       <c r="AF33" s="0">
         <v>0</v>
@@ -6819,10 +6819,10 @@
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0</v>
+        <v>0.55895670893216698</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0.7051880782500477</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6906,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="BK33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL33" s="0">
         <v>0</v>
@@ -6959,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" s="0">
         <v>0</v>
@@ -7007,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="AB34" s="0">
-        <v>0</v>
+        <v>0.5802046358409273</v>
       </c>
       <c r="AC34" s="0">
         <v>0</v>
@@ -7022,7 +7022,7 @@
         <v>0</v>
       </c>
       <c r="AG34" s="0">
-        <v>0</v>
+        <v>0.59616578078752913</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
@@ -7052,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="AQ34" s="0">
-        <v>1</v>
+        <v>0.72192677776569836</v>
       </c>
       <c r="AR34" s="0">
         <v>0</v>
@@ -7064,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="AU34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV34" s="0">
         <v>0</v>
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="BD34" s="0">
-        <v>0</v>
+        <v>0.63966277614223244</v>
       </c>
       <c r="BE34" s="0">
         <v>0</v>
@@ -7115,10 +7115,10 @@
         <v>0</v>
       </c>
       <c r="BL34" s="0">
-        <v>0</v>
+        <v>0.87681235401679958</v>
       </c>
       <c r="BM34" s="0">
-        <v>0</v>
+        <v>0.89148779189832106</v>
       </c>
       <c r="BN34" s="0">
         <v>0</v>
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="0">
         <v>0</v>
@@ -7183,13 +7183,13 @@
         <v>0</v>
       </c>
       <c r="R35" s="0">
-        <v>0</v>
+        <v>0.85069212447468412</v>
       </c>
       <c r="S35" s="0">
         <v>0</v>
       </c>
       <c r="T35" s="0">
-        <v>0</v>
+        <v>0.70536419083655411</v>
       </c>
       <c r="U35" s="0">
         <v>0</v>
@@ -7225,10 +7225,10 @@
         <v>0</v>
       </c>
       <c r="AF35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0.61495322109644035</v>
       </c>
       <c r="AH35" s="0">
         <v>0</v>
@@ -7240,13 +7240,13 @@
         <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
       </c>
       <c r="AM35" s="0">
-        <v>0</v>
+        <v>0.7970086882241979</v>
       </c>
       <c r="AN35" s="0">
         <v>0</v>
@@ -7270,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="AU35" s="0">
-        <v>0</v>
+        <v>0.64929848359578068</v>
       </c>
       <c r="AV35" s="0">
         <v>0</v>
@@ -7374,7 +7374,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="0">
-        <v>0</v>
+        <v>0.79747480340629817</v>
       </c>
       <c r="N36" s="0">
         <v>0</v>
@@ -7449,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="AS36" s="0">
-        <v>0</v>
+        <v>0.89526485103708298</v>
       </c>
       <c r="AT36" s="0">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>0</v>
       </c>
       <c r="AW36" s="0">
-        <v>0</v>
+        <v>0.68312369504757531</v>
       </c>
       <c r="AX36" s="0">
         <v>0</v>
@@ -7494,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="BA36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB36" s="0">
         <v>0</v>
@@ -7509,13 +7509,13 @@
         <v>0</v>
       </c>
       <c r="BF36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG36" s="0">
         <v>0</v>
       </c>
       <c r="BH36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI36" s="0">
         <v>0</v>
@@ -7574,13 +7574,13 @@
         <v>0</v>
       </c>
       <c r="K37" s="0">
-        <v>0</v>
+        <v>0.71298246914626018</v>
       </c>
       <c r="L37" s="0">
         <v>0</v>
       </c>
       <c r="M37" s="0">
-        <v>0</v>
+        <v>0.72248321870761623</v>
       </c>
       <c r="N37" s="0">
         <v>0</v>
@@ -7631,13 +7631,13 @@
         <v>0</v>
       </c>
       <c r="AD37" s="0">
-        <v>1</v>
+        <v>0.97895565887007896</v>
       </c>
       <c r="AE37" s="0">
         <v>0</v>
       </c>
       <c r="AF37" s="0">
-        <v>0</v>
+        <v>0.83027068312663532</v>
       </c>
       <c r="AG37" s="0">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ37" s="0">
         <v>0</v>
@@ -7661,13 +7661,13 @@
         <v>0</v>
       </c>
       <c r="AN37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO37" s="0">
-        <v>0</v>
+        <v>0.62384862187442702</v>
       </c>
       <c r="AP37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ37" s="0">
         <v>0</v>
@@ -7721,7 +7721,7 @@
         <v>0</v>
       </c>
       <c r="BH37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI37" s="0">
         <v>0</v>
@@ -7783,10 +7783,10 @@
         <v>0</v>
       </c>
       <c r="L38" s="0">
-        <v>0</v>
+        <v>0.74773082790098711</v>
       </c>
       <c r="M38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" s="0">
         <v>0</v>
@@ -7816,7 +7816,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="0">
-        <v>0</v>
+        <v>0.91331059531763115</v>
       </c>
       <c r="X38" s="0">
         <v>0</v>
@@ -7828,7 +7828,7 @@
         <v>0</v>
       </c>
       <c r="AA38" s="0">
-        <v>0</v>
+        <v>0.68033256232679085</v>
       </c>
       <c r="AB38" s="0">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="0">
         <v>0</v>
@@ -7870,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="AO38" s="0">
-        <v>0</v>
+        <v>0.60019878288468143</v>
       </c>
       <c r="AP38" s="0">
         <v>0</v>
@@ -7912,7 +7912,7 @@
         <v>0</v>
       </c>
       <c r="BC38" s="0">
-        <v>0</v>
+        <v>0.68493276864483665</v>
       </c>
       <c r="BD38" s="0">
         <v>0</v>
@@ -7956,7 +7956,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0</v>
+        <v>0.55967161501947493</v>
       </c>
       <c r="B39" s="0">
         <v>0</v>
@@ -7980,7 +7980,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" s="0">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="Z39" s="0">
-        <v>0</v>
+        <v>0.85117183929857987</v>
       </c>
       <c r="AA39" s="0">
         <v>0</v>
@@ -8049,7 +8049,7 @@
         <v>0</v>
       </c>
       <c r="AF39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG39" s="0">
         <v>0</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="AI39" s="0">
-        <v>0</v>
+        <v>0.52951775193476913</v>
       </c>
       <c r="AJ39" s="0">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="AO39" s="0">
-        <v>0</v>
+        <v>0.80388040833998242</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8100,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="AW39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX39" s="0">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="BI39" s="0">
-        <v>0</v>
+        <v>0.84228400290325067</v>
       </c>
       <c r="BJ39" s="0">
         <v>0</v>
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" s="0">
         <v>0</v>
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="0">
         <v>0</v>
@@ -8201,7 +8201,7 @@
         <v>0</v>
       </c>
       <c r="N40" s="0">
-        <v>0</v>
+        <v>0.53742648287476724</v>
       </c>
       <c r="O40" s="0">
         <v>0</v>
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="Y40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="0">
         <v>0</v>
@@ -8270,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="AK40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL40" s="0">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="AZ40" s="0">
-        <v>0</v>
+        <v>0.6574810332830261</v>
       </c>
       <c r="BA40" s="0">
-        <v>0</v>
+        <v>0.69892208045457149</v>
       </c>
       <c r="BB40" s="0">
         <v>0</v>
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="BD40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE40" s="0">
         <v>0</v>
@@ -8389,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" s="0">
         <v>0</v>
@@ -8437,10 +8437,10 @@
         <v>0</v>
       </c>
       <c r="X41" s="0">
-        <v>0</v>
+        <v>0.53999775996890098</v>
       </c>
       <c r="Y41" s="0">
-        <v>0</v>
+        <v>0.5957736750140511</v>
       </c>
       <c r="Z41" s="0">
         <v>0</v>
@@ -8476,13 +8476,13 @@
         <v>0</v>
       </c>
       <c r="AK41" s="0">
-        <v>0</v>
+        <v>0.54437748219099513</v>
       </c>
       <c r="AL41" s="0">
-        <v>0</v>
+        <v>0.83227482352318405</v>
       </c>
       <c r="AM41" s="0">
-        <v>0</v>
+        <v>0.78338410777898049</v>
       </c>
       <c r="AN41" s="0">
         <v>0</v>
@@ -8545,7 +8545,7 @@
         <v>0</v>
       </c>
       <c r="BH41" s="0">
-        <v>0</v>
+        <v>0.8626856664703858</v>
       </c>
       <c r="BI41" s="0">
         <v>0</v>
@@ -8560,7 +8560,7 @@
         <v>0</v>
       </c>
       <c r="BM41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN41" s="0">
         <v>0</v>
@@ -8569,7 +8569,7 @@
         <v>0</v>
       </c>
       <c r="BP41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -8616,7 +8616,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="0">
-        <v>0</v>
+        <v>0.53984115252556431</v>
       </c>
       <c r="P42" s="0">
         <v>0</v>
@@ -8658,16 +8658,16 @@
         <v>0</v>
       </c>
       <c r="AC42" s="0">
-        <v>0</v>
+        <v>0.77126110492935385</v>
       </c>
       <c r="AD42" s="0">
         <v>0</v>
       </c>
       <c r="AE42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF42" s="0">
-        <v>0</v>
+        <v>0.99387310058384026</v>
       </c>
       <c r="AG42" s="0">
         <v>0</v>
@@ -8682,7 +8682,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42" s="0">
         <v>0</v>
@@ -8733,7 +8733,7 @@
         <v>0</v>
       </c>
       <c r="BB42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC42" s="0">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="BM42" s="0">
-        <v>0</v>
+        <v>0.60726991116090845</v>
       </c>
       <c r="BN42" s="0">
         <v>0</v>
@@ -8855,7 +8855,7 @@
         <v>0</v>
       </c>
       <c r="Z43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA43" s="0">
         <v>0</v>
@@ -8879,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="AH43" s="0">
-        <v>1</v>
+        <v>0.63240329612646806</v>
       </c>
       <c r="AI43" s="0">
         <v>0</v>
@@ -8915,7 +8915,7 @@
         <v>0</v>
       </c>
       <c r="AT43" s="0">
-        <v>0</v>
+        <v>0.51250652808160213</v>
       </c>
       <c r="AU43" s="0">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="AY43" s="0">
-        <v>0</v>
+        <v>0.52485693108147402</v>
       </c>
       <c r="AZ43" s="0">
         <v>0</v>
@@ -8963,10 +8963,10 @@
         <v>0</v>
       </c>
       <c r="BJ43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL43" s="0">
         <v>0</v>
@@ -9007,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="0">
-        <v>0</v>
+        <v>0.80112484509019333</v>
       </c>
       <c r="I44" s="0">
         <v>0</v>
@@ -9118,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0.82885631074947919</v>
       </c>
       <c r="AT44" s="0">
         <v>0</v>
@@ -9130,7 +9130,7 @@
         <v>0</v>
       </c>
       <c r="AW44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX44" s="0">
         <v>0</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="BD44" s="0">
-        <v>0</v>
+        <v>0.91886078228089407</v>
       </c>
       <c r="BE44" s="0">
         <v>0</v>
@@ -9192,7 +9192,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B45" s="0">
         <v>0</v>
@@ -9276,10 +9276,10 @@
         <v>0</v>
       </c>
       <c r="AC45" s="0">
-        <v>0</v>
+        <v>0.98492320502886499</v>
       </c>
       <c r="AD45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE45" s="0">
         <v>0</v>
@@ -9297,7 +9297,7 @@
         <v>0</v>
       </c>
       <c r="AJ45" s="0">
-        <v>0</v>
+        <v>0.72485714612937535</v>
       </c>
       <c r="AK45" s="0">
         <v>0</v>
@@ -9321,13 +9321,13 @@
         <v>0</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0.99733242913753584</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU45" s="0">
         <v>0</v>
@@ -9339,7 +9339,7 @@
         <v>0</v>
       </c>
       <c r="AX45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY45" s="0">
         <v>0</v>
@@ -9348,13 +9348,13 @@
         <v>0</v>
       </c>
       <c r="BA45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB45" s="0">
         <v>0</v>
       </c>
       <c r="BC45" s="0">
-        <v>0</v>
+        <v>0.77137685236483899</v>
       </c>
       <c r="BD45" s="0">
         <v>0</v>
@@ -9428,13 +9428,13 @@
         <v>0</v>
       </c>
       <c r="K46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="0">
         <v>0</v>
       </c>
       <c r="M46" s="0">
-        <v>0</v>
+        <v>0.95599023977272557</v>
       </c>
       <c r="N46" s="0">
         <v>0</v>
@@ -9446,7 +9446,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="0">
-        <v>0</v>
+        <v>0.56326347369419183</v>
       </c>
       <c r="R46" s="0">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="AE46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF46" s="0">
         <v>0</v>
@@ -9524,13 +9524,13 @@
         <v>0</v>
       </c>
       <c r="AQ46" s="0">
-        <v>0</v>
+        <v>0.8052203144487925</v>
       </c>
       <c r="AR46" s="0">
         <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
@@ -9563,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="BD46" s="0">
-        <v>0</v>
+        <v>0.84086225307732765</v>
       </c>
       <c r="BE46" s="0">
         <v>0</v>
@@ -9631,7 +9631,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="0">
-        <v>0</v>
+        <v>0.72730545343167075</v>
       </c>
       <c r="K47" s="0">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" s="0">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="R47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S47" s="0">
         <v>0</v>
@@ -9703,10 +9703,10 @@
         <v>0</v>
       </c>
       <c r="AH47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI47" s="0">
-        <v>0</v>
+        <v>0.75250965353585419</v>
       </c>
       <c r="AJ47" s="0">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9763,7 +9763,7 @@
         <v>0</v>
       </c>
       <c r="BB47" s="0">
-        <v>0</v>
+        <v>0.68983684463363182</v>
       </c>
       <c r="BC47" s="0">
         <v>0</v>
@@ -9802,7 +9802,7 @@
         <v>0</v>
       </c>
       <c r="BO47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP47" s="0">
         <v>0</v>
@@ -9834,7 +9834,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="0">
-        <v>0</v>
+        <v>0.5710624044742808</v>
       </c>
       <c r="J48" s="0">
         <v>0</v>
@@ -9843,7 +9843,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="0">
-        <v>0</v>
+        <v>0.52223985413551555</v>
       </c>
       <c r="M48" s="0">
         <v>0</v>
@@ -9879,7 +9879,7 @@
         <v>0</v>
       </c>
       <c r="X48" s="0">
-        <v>0</v>
+        <v>0.92675833473331415</v>
       </c>
       <c r="Y48" s="0">
         <v>0</v>
@@ -9894,7 +9894,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD48" s="0">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="BB48" s="0">
-        <v>1</v>
+        <v>0.6300011398120724</v>
       </c>
       <c r="BC48" s="0">
         <v>0</v>
@@ -9996,7 +9996,7 @@
         <v>0</v>
       </c>
       <c r="BK48" s="0">
-        <v>0</v>
+        <v>0.99343749441433826</v>
       </c>
       <c r="BL48" s="0">
         <v>0</v>
@@ -10025,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="0">
-        <v>0</v>
+        <v>0.53128052191278563</v>
       </c>
       <c r="E49" s="0">
         <v>0</v>
@@ -10058,7 +10058,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="0">
-        <v>0</v>
+        <v>0.51347637269360347</v>
       </c>
       <c r="P49" s="0">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="AJ49" s="0">
-        <v>0</v>
+        <v>0.6369249564528694</v>
       </c>
       <c r="AK49" s="0">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="AM49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN49" s="0">
         <v>0</v>
@@ -10145,7 +10145,7 @@
         <v>0</v>
       </c>
       <c r="AR49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS49" s="0">
         <v>0</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV49" s="0">
         <v>0</v>
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="B50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" s="0">
         <v>0</v>
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" s="0">
         <v>0</v>
@@ -10273,7 +10273,7 @@
         <v>0</v>
       </c>
       <c r="R50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S50" s="0">
         <v>0</v>
@@ -10282,10 +10282,10 @@
         <v>0</v>
       </c>
       <c r="U50" s="0">
-        <v>0</v>
+        <v>0.65543904172278811</v>
       </c>
       <c r="V50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W50" s="0">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="AS50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT50" s="0">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10393,7 +10393,7 @@
         <v>0</v>
       </c>
       <c r="BF50" s="0">
-        <v>0</v>
+        <v>0.58652176955088264</v>
       </c>
       <c r="BG50" s="0">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="0">
-        <v>0</v>
+        <v>0.92368428406678593</v>
       </c>
       <c r="H51" s="0">
         <v>0</v>
@@ -10461,7 +10461,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" s="0">
         <v>0</v>
@@ -10494,7 +10494,7 @@
         <v>0</v>
       </c>
       <c r="W51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X51" s="0">
         <v>0</v>
@@ -10554,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="AQ51" s="0">
-        <v>0</v>
+        <v>0.99494607030714277</v>
       </c>
       <c r="AR51" s="0">
         <v>0</v>
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX51" s="0">
         <v>0</v>
@@ -10593,7 +10593,7 @@
         <v>0</v>
       </c>
       <c r="BD51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE51" s="0">
         <v>0</v>
@@ -10602,7 +10602,7 @@
         <v>0</v>
       </c>
       <c r="BG51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH51" s="0">
         <v>0</v>
@@ -10623,7 +10623,7 @@
         <v>0</v>
       </c>
       <c r="BN51" s="0">
-        <v>0</v>
+        <v>0.91827866376990563</v>
       </c>
       <c r="BO51" s="0">
         <v>0</v>
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="0">
-        <v>1</v>
+        <v>0.57649586959184873</v>
       </c>
       <c r="D52" s="0">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>0</v>
       </c>
       <c r="K52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" s="0">
         <v>0</v>
       </c>
       <c r="M52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52" s="0">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="T52" s="0">
-        <v>0</v>
+        <v>0.57934619871226789</v>
       </c>
       <c r="U52" s="0">
         <v>0</v>
@@ -10706,10 +10706,10 @@
         <v>0</v>
       </c>
       <c r="Y52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA52" s="0">
         <v>0</v>
@@ -10751,7 +10751,7 @@
         <v>0</v>
       </c>
       <c r="AN52" s="0">
-        <v>0</v>
+        <v>0.53791162538165405</v>
       </c>
       <c r="AO52" s="0">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY52" s="0">
         <v>0</v>
@@ -10805,7 +10805,7 @@
         <v>0</v>
       </c>
       <c r="BF52" s="0">
-        <v>0</v>
+        <v>0.5292446678610645</v>
       </c>
       <c r="BG52" s="0">
         <v>0</v>
@@ -10855,7 +10855,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" s="0">
         <v>0</v>
@@ -10906,7 +10906,7 @@
         <v>0</v>
       </c>
       <c r="W53" s="0">
-        <v>0</v>
+        <v>0.56721162538793157</v>
       </c>
       <c r="X53" s="0">
         <v>0</v>
@@ -10945,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="AJ53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK53" s="0">
         <v>0</v>
@@ -10957,7 +10957,7 @@
         <v>0</v>
       </c>
       <c r="AN53" s="0">
-        <v>0</v>
+        <v>0.56138402010763466</v>
       </c>
       <c r="AO53" s="0">
         <v>0</v>
@@ -10972,7 +10972,7 @@
         <v>0</v>
       </c>
       <c r="AS53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT53" s="0">
         <v>0</v>
@@ -11023,7 +11023,7 @@
         <v>0</v>
       </c>
       <c r="BJ53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK53" s="0">
         <v>0</v>
@@ -11041,18 +11041,18 @@
         <v>0</v>
       </c>
       <c r="BP53" s="0">
-        <v>1</v>
+        <v>0.69017120382794528</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0</v>
+        <v>0.5427576027819816</v>
       </c>
       <c r="B54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" s="0">
-        <v>0</v>
+        <v>0.99806341687359035</v>
       </c>
       <c r="D54" s="0">
         <v>0</v>
@@ -11082,7 +11082,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54" s="0">
         <v>0</v>
@@ -11115,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="X54" s="0">
-        <v>1</v>
+        <v>0.61690410421618402</v>
       </c>
       <c r="Y54" s="0">
         <v>0</v>
@@ -11169,7 +11169,7 @@
         <v>0</v>
       </c>
       <c r="AP54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ54" s="0">
         <v>0</v>
@@ -11184,10 +11184,10 @@
         <v>0</v>
       </c>
       <c r="AU54" s="0">
-        <v>0</v>
+        <v>0.8163446256834801</v>
       </c>
       <c r="AV54" s="0">
-        <v>1</v>
+        <v>0.82776191897370222</v>
       </c>
       <c r="AW54" s="0">
         <v>0</v>
@@ -11238,13 +11238,13 @@
         <v>0</v>
       </c>
       <c r="BM54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN54" s="0">
         <v>0</v>
       </c>
       <c r="BO54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP54" s="0">
         <v>0</v>
@@ -11315,13 +11315,13 @@
         <v>0</v>
       </c>
       <c r="V55" s="0">
-        <v>0</v>
+        <v>0.81584804451072812</v>
       </c>
       <c r="W55" s="0">
         <v>0</v>
       </c>
       <c r="X55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y55" s="0">
         <v>0</v>
@@ -11363,7 +11363,7 @@
         <v>0</v>
       </c>
       <c r="AL55" s="0">
-        <v>0</v>
+        <v>0.63333313492506949</v>
       </c>
       <c r="AM55" s="0">
         <v>0</v>
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="AS55" s="0">
-        <v>0</v>
+        <v>0.59425713298433069</v>
       </c>
       <c r="AT55" s="0">
         <v>0</v>
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11429,7 +11429,7 @@
         <v>0</v>
       </c>
       <c r="BH55" s="0">
-        <v>0</v>
+        <v>0.66746992960979123</v>
       </c>
       <c r="BI55" s="0">
         <v>0</v>
@@ -11491,7 +11491,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" s="0">
         <v>0</v>
@@ -11518,7 +11518,7 @@
         <v>0</v>
       </c>
       <c r="U56" s="0">
-        <v>0</v>
+        <v>0.80959521433646953</v>
       </c>
       <c r="V56" s="0">
         <v>0</v>
@@ -11557,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="AH56" s="0">
-        <v>0</v>
+        <v>0.52015910015834455</v>
       </c>
       <c r="AI56" s="0">
         <v>0</v>
@@ -11575,7 +11575,7 @@
         <v>0</v>
       </c>
       <c r="AN56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO56" s="0">
         <v>0</v>
@@ -11587,13 +11587,13 @@
         <v>0</v>
       </c>
       <c r="AR56" s="0">
-        <v>0</v>
+        <v>0.9079470771325111</v>
       </c>
       <c r="AS56" s="0">
         <v>0</v>
       </c>
       <c r="AT56" s="0">
-        <v>0</v>
+        <v>0.51362943667629701</v>
       </c>
       <c r="AU56" s="0">
         <v>0</v>
@@ -11608,7 +11608,7 @@
         <v>0</v>
       </c>
       <c r="AY56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ56" s="0">
         <v>0</v>
@@ -11629,7 +11629,7 @@
         <v>0</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11718,7 +11718,7 @@
         <v>0</v>
       </c>
       <c r="S57" s="0">
-        <v>0</v>
+        <v>0.54419663558183562</v>
       </c>
       <c r="T57" s="0">
         <v>0</v>
@@ -11745,7 +11745,7 @@
         <v>0</v>
       </c>
       <c r="AB57" s="0">
-        <v>0</v>
+        <v>0.56812382312718834</v>
       </c>
       <c r="AC57" s="0">
         <v>0</v>
@@ -11826,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD57" s="0">
         <v>0</v>
@@ -11835,10 +11835,10 @@
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0.85433330953556186</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="0">
-        <v>0</v>
+        <v>0.60664470275297555</v>
       </c>
       <c r="G58" s="0">
         <v>0</v>
@@ -11909,10 +11909,10 @@
         <v>0</v>
       </c>
       <c r="N58" s="0">
-        <v>0</v>
+        <v>0.95148364487046266</v>
       </c>
       <c r="O58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P58" s="0">
         <v>0</v>
@@ -11942,13 +11942,13 @@
         <v>0</v>
       </c>
       <c r="Y58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="0">
         <v>0</v>
       </c>
       <c r="AA58" s="0">
-        <v>0</v>
+        <v>0.76515647726864744</v>
       </c>
       <c r="AB58" s="0">
         <v>0</v>
@@ -11975,7 +11975,7 @@
         <v>0</v>
       </c>
       <c r="AJ58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK58" s="0">
         <v>0</v>
@@ -12017,13 +12017,13 @@
         <v>0</v>
       </c>
       <c r="AX58" s="0">
-        <v>0</v>
+        <v>0.71103382268252635</v>
       </c>
       <c r="AY58" s="0">
         <v>0</v>
       </c>
       <c r="AZ58" s="0">
-        <v>0</v>
+        <v>0.81165848433272303</v>
       </c>
       <c r="BA58" s="0">
         <v>0</v>
@@ -12035,10 +12035,10 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0.71226591615248691</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
@@ -12079,7 +12079,7 @@
         <v>0</v>
       </c>
       <c r="B59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" s="0">
         <v>0</v>
@@ -12097,7 +12097,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="0">
-        <v>0</v>
+        <v>0.50757193849790738</v>
       </c>
       <c r="I59" s="0">
         <v>0</v>
@@ -12121,7 +12121,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="0">
         <v>0</v>
@@ -12226,7 +12226,7 @@
         <v>0</v>
       </c>
       <c r="AY59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ59" s="0">
         <v>0</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF59" s="0">
         <v>0</v>
@@ -12253,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0.75859614022340027</v>
       </c>
       <c r="BI59" s="0">
         <v>0</v>
@@ -12277,7 +12277,7 @@
         <v>0</v>
       </c>
       <c r="BP59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -12297,7 +12297,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="0">
-        <v>0</v>
+        <v>0.81829268984835979</v>
       </c>
       <c r="G60" s="0">
         <v>0</v>
@@ -12387,10 +12387,10 @@
         <v>0</v>
       </c>
       <c r="AJ60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60" s="0">
         <v>0</v>
@@ -12402,7 +12402,7 @@
         <v>0</v>
       </c>
       <c r="AO60" s="0">
-        <v>0</v>
+        <v>0.63618219295627154</v>
       </c>
       <c r="AP60" s="0">
         <v>0</v>
@@ -12444,7 +12444,7 @@
         <v>0</v>
       </c>
       <c r="BC60" s="0">
-        <v>0</v>
+        <v>0.70722011373640059</v>
       </c>
       <c r="BD60" s="0">
         <v>0</v>
@@ -12456,16 +12456,16 @@
         <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0.98449157295030942</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12480,7 +12480,7 @@
         <v>0</v>
       </c>
       <c r="BO60" s="0">
-        <v>0</v>
+        <v>0.67613809448023043</v>
       </c>
       <c r="BP60" s="0">
         <v>0</v>
@@ -12515,7 +12515,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="0">
         <v>0</v>
@@ -12545,7 +12545,7 @@
         <v>0</v>
       </c>
       <c r="T61" s="0">
-        <v>0</v>
+        <v>0.80414002261487405</v>
       </c>
       <c r="U61" s="0">
         <v>0</v>
@@ -12602,7 +12602,7 @@
         <v>0</v>
       </c>
       <c r="AM61" s="0">
-        <v>0</v>
+        <v>0.6372248890928518</v>
       </c>
       <c r="AN61" s="0">
         <v>0</v>
@@ -12665,7 +12665,7 @@
         <v>0</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
@@ -12683,7 +12683,7 @@
         <v>0</v>
       </c>
       <c r="BN61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO61" s="0">
         <v>0</v>
@@ -12694,7 +12694,7 @@
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>0</v>
+        <v>0.98118328981227154</v>
       </c>
       <c r="B62" s="0">
         <v>0</v>
@@ -12736,7 +12736,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P62" s="0">
         <v>0</v>
@@ -12757,7 +12757,7 @@
         <v>0</v>
       </c>
       <c r="V62" s="0">
-        <v>0</v>
+        <v>0.81697071655984754</v>
       </c>
       <c r="W62" s="0">
         <v>0</v>
@@ -12778,7 +12778,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="0">
-        <v>0</v>
+        <v>0.89245150680293173</v>
       </c>
       <c r="AD62" s="0">
         <v>0</v>
@@ -12820,7 +12820,7 @@
         <v>0</v>
       </c>
       <c r="AQ62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR62" s="0">
         <v>0</v>
@@ -12850,7 +12850,7 @@
         <v>0</v>
       </c>
       <c r="BA62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB62" s="0">
         <v>0</v>
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI62" s="0">
         <v>0</v>
@@ -12906,13 +12906,13 @@
         <v>0</v>
       </c>
       <c r="C63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" s="0">
         <v>0</v>
       </c>
       <c r="E63" s="0">
-        <v>0</v>
+        <v>0.85965722511811404</v>
       </c>
       <c r="F63" s="0">
         <v>0</v>
@@ -12975,7 +12975,7 @@
         <v>0</v>
       </c>
       <c r="Z63" s="0">
-        <v>0</v>
+        <v>0.69122588645917005</v>
       </c>
       <c r="AA63" s="0">
         <v>0</v>
@@ -12984,10 +12984,10 @@
         <v>0</v>
       </c>
       <c r="AC63" s="0">
-        <v>0</v>
+        <v>0.6744311235914604</v>
       </c>
       <c r="AD63" s="0">
-        <v>0</v>
+        <v>0.59912231937347493</v>
       </c>
       <c r="AE63" s="0">
         <v>0</v>
@@ -12996,7 +12996,7 @@
         <v>0</v>
       </c>
       <c r="AG63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH63" s="0">
         <v>0</v>
@@ -13026,7 +13026,7 @@
         <v>0</v>
       </c>
       <c r="AQ63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR63" s="0">
         <v>0</v>
@@ -13041,7 +13041,7 @@
         <v>0</v>
       </c>
       <c r="AV63" s="0">
-        <v>0</v>
+        <v>0.65705789796656133</v>
       </c>
       <c r="AW63" s="0">
         <v>0</v>
@@ -13089,7 +13089,7 @@
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM63" s="0">
         <v>0</v>
@@ -13098,7 +13098,7 @@
         <v>0</v>
       </c>
       <c r="BO63" s="0">
-        <v>0</v>
+        <v>0.86401003029878654</v>
       </c>
       <c r="BP63" s="0">
         <v>0</v>
@@ -13118,7 +13118,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" s="0">
         <v>0</v>
@@ -13184,7 +13184,7 @@
         <v>0</v>
       </c>
       <c r="AA64" s="0">
-        <v>0</v>
+        <v>0.62461678841926327</v>
       </c>
       <c r="AB64" s="0">
         <v>0</v>
@@ -13205,7 +13205,7 @@
         <v>0</v>
       </c>
       <c r="AH64" s="0">
-        <v>0</v>
+        <v>0.95023912708241887</v>
       </c>
       <c r="AI64" s="0">
         <v>0</v>
@@ -13292,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
@@ -13301,10 +13301,10 @@
         <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>0</v>
+        <v>0.5006198868295505</v>
       </c>
       <c r="BO64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP64" s="0">
         <v>0</v>
@@ -13393,7 +13393,7 @@
         <v>0</v>
       </c>
       <c r="AB65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC65" s="0">
         <v>0</v>
@@ -13411,7 +13411,7 @@
         <v>0</v>
       </c>
       <c r="AH65" s="0">
-        <v>0</v>
+        <v>0.85825783148045698</v>
       </c>
       <c r="AI65" s="0">
         <v>0</v>
@@ -13432,10 +13432,10 @@
         <v>0</v>
       </c>
       <c r="AO65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP65" s="0">
-        <v>0</v>
+        <v>0.73643443732097502</v>
       </c>
       <c r="AQ65" s="0">
         <v>0</v>
@@ -13471,7 +13471,7 @@
         <v>0</v>
       </c>
       <c r="BB65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC65" s="0">
         <v>0</v>
@@ -13551,7 +13551,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66" s="0">
         <v>0</v>
@@ -13560,10 +13560,10 @@
         <v>0</v>
       </c>
       <c r="O66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="0">
         <v>0</v>
@@ -13602,7 +13602,7 @@
         <v>0</v>
       </c>
       <c r="AC66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD66" s="0">
         <v>0</v>
@@ -13611,7 +13611,7 @@
         <v>0</v>
       </c>
       <c r="AF66" s="0">
-        <v>0</v>
+        <v>0.91469168328039951</v>
       </c>
       <c r="AG66" s="0">
         <v>0</v>
@@ -13668,7 +13668,7 @@
         <v>0</v>
       </c>
       <c r="AY66" s="0">
-        <v>0</v>
+        <v>0.83222965168137975</v>
       </c>
       <c r="AZ66" s="0">
         <v>0</v>
@@ -13698,7 +13698,7 @@
         <v>0</v>
       </c>
       <c r="BI66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ66" s="0">
         <v>0</v>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0</v>
+        <v>0.87295659899744238</v>
       </c>
       <c r="BM66" s="0">
         <v>0</v>
@@ -13716,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0</v>
+        <v>0.75454889086510335</v>
       </c>
       <c r="BP66" s="0">
         <v>0</v>
@@ -13727,7 +13727,7 @@
         <v>0</v>
       </c>
       <c r="B67" s="0">
-        <v>0</v>
+        <v>0.63491914903306723</v>
       </c>
       <c r="C67" s="0">
         <v>0</v>
@@ -13739,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="0">
-        <v>0</v>
+        <v>0.71410171671827571</v>
       </c>
       <c r="G67" s="0">
         <v>0</v>
@@ -13751,7 +13751,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" s="0">
         <v>0</v>
@@ -13766,7 +13766,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P67" s="0">
         <v>0</v>
@@ -13817,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="AF67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG67" s="0">
         <v>0</v>
@@ -13862,7 +13862,7 @@
         <v>0</v>
       </c>
       <c r="AU67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV67" s="0">
         <v>0</v>
@@ -13883,7 +13883,7 @@
         <v>0</v>
       </c>
       <c r="BB67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC67" s="0">
         <v>0</v>
@@ -13901,7 +13901,7 @@
         <v>0</v>
       </c>
       <c r="BH67" s="0">
-        <v>0</v>
+        <v>0.92783211565454038</v>
       </c>
       <c r="BI67" s="0">
         <v>0</v>
@@ -13910,16 +13910,16 @@
         <v>0</v>
       </c>
       <c r="BK67" s="0">
-        <v>0</v>
+        <v>0.7919837413526607</v>
       </c>
       <c r="BL67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM67" s="0">
         <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>0</v>
+        <v>0.72597955544409787</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
@@ -13933,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -13966,7 +13966,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="0">
-        <v>0</v>
+        <v>0.64514934139993207</v>
       </c>
       <c r="N68" s="0">
         <v>0</v>
@@ -13975,7 +13975,7 @@
         <v>0</v>
       </c>
       <c r="P68" s="0">
-        <v>0</v>
+        <v>0.62997586596457822</v>
       </c>
       <c r="Q68" s="0">
         <v>0</v>
@@ -13999,7 +13999,7 @@
         <v>0</v>
       </c>
       <c r="X68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y68" s="0">
         <v>0</v>
@@ -14011,7 +14011,7 @@
         <v>0</v>
       </c>
       <c r="AB68" s="0">
-        <v>0</v>
+        <v>0.53796025055475238</v>
       </c>
       <c r="AC68" s="0">
         <v>0</v>
@@ -14023,7 +14023,7 @@
         <v>0</v>
       </c>
       <c r="AF68" s="0">
-        <v>0</v>
+        <v>0.51966706103848059</v>
       </c>
       <c r="AG68" s="0">
         <v>0</v>
@@ -14050,7 +14050,7 @@
         <v>0</v>
       </c>
       <c r="AO68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP68" s="0">
         <v>0</v>
@@ -14086,7 +14086,7 @@
         <v>0</v>
       </c>
       <c r="BA68" s="0">
-        <v>1</v>
+        <v>0.94799752397784731</v>
       </c>
       <c r="BB68" s="0">
         <v>0</v>
@@ -14104,7 +14104,7 @@
         <v>0</v>
       </c>
       <c r="BG68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject14.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject14.xlsx
@@ -134,13 +134,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>0.59737450417429927</v>
+        <v>0.74313608499204076</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
       </c>
       <c r="E1" s="0">
-        <v>0.54314864803700136</v>
+        <v>0.56536580948380344</v>
       </c>
       <c r="F1" s="0">
         <v>0</v>
@@ -191,7 +191,7 @@
         <v>0</v>
       </c>
       <c r="V1" s="0">
-        <v>0.67859526919441371</v>
+        <v>0.69041005924920229</v>
       </c>
       <c r="W1" s="0">
         <v>0</v>
@@ -311,7 +311,7 @@
         <v>0</v>
       </c>
       <c r="BJ1" s="0">
-        <v>0.86341180425350761</v>
+        <v>0.98118328981227154</v>
       </c>
       <c r="BK1" s="0">
         <v>0</v>
@@ -370,7 +370,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="0">
-        <v>0.62936369118760171</v>
+        <v>0.80008323777336865</v>
       </c>
       <c r="N2" s="0">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="0">
-        <v>0.51932823810996642</v>
+        <v>0.81237450520765198</v>
       </c>
       <c r="O3" s="0">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="BB3" s="0">
-        <v>0.71394763039116249</v>
+        <v>0.99806341687359035</v>
       </c>
       <c r="BC3" s="0">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.91967427961851045</v>
+        <v>0.99115169074890863</v>
       </c>
       <c r="F4" s="0">
         <v>0</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="V4" s="0">
-        <v>0.56035016754342815</v>
+        <v>0.9158183680731049</v>
       </c>
       <c r="W4" s="0">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="BK5" s="0">
-        <v>0.62096852272240499</v>
+        <v>0.85965722511811404</v>
       </c>
       <c r="BL5" s="0">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.7428160416726115</v>
+        <v>0.86940810182621575</v>
       </c>
       <c r="L7" s="0">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="AY7" s="0">
-        <v>0.61709836835270959</v>
+        <v>0.92368428406678593</v>
       </c>
       <c r="AZ7" s="0">
         <v>0</v>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="0">
-        <v>0.59492240568040611</v>
+        <v>0.85123647095088784</v>
       </c>
       <c r="M8" s="0">
         <v>0</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="0">
-        <v>0.76261615110347769</v>
+        <v>0.85729062000626044</v>
       </c>
       <c r="W8" s="0">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="AR8" s="0">
-        <v>0.57560287178476988</v>
+        <v>0.80112484509019333</v>
       </c>
       <c r="AS8" s="0">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>0.81474377883800619</v>
+        <v>0.8330522142437401</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>0</v>
       </c>
       <c r="Y10" s="0">
-        <v>0.53740382231104422</v>
+        <v>0.90703790630522096</v>
       </c>
       <c r="Z10" s="0">
         <v>0</v>
       </c>
       <c r="AA10" s="0">
-        <v>0.51506494078188514</v>
+        <v>0.88025587314424081</v>
       </c>
       <c r="AB10" s="0">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="AU10" s="0">
-        <v>0.63426843902598351</v>
+        <v>0.72730545343167075</v>
       </c>
       <c r="AV10" s="0">
         <v>0</v>
@@ -2197,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.66088287615484786</v>
+        <v>0.80198541782281407</v>
       </c>
       <c r="E11" s="0">
         <v>0</v>
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="AL12" s="0">
-        <v>0.62508145765941747</v>
+        <v>0.74773082790098711</v>
       </c>
       <c r="AM12" s="0">
         <v>0</v>
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="0">
-        <v>0.65735413596570202</v>
+        <v>0.70177446764466722</v>
       </c>
       <c r="J13" s="0">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="0">
-        <v>0.75632590573082492</v>
+        <v>0.98786733439634822</v>
       </c>
       <c r="R13" s="0">
         <v>0</v>
@@ -2705,10 +2705,10 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="0">
-        <v>0.52980240965556169</v>
+        <v>0.79747480340629817</v>
       </c>
       <c r="AK13" s="0">
-        <v>0.712165967548545</v>
+        <v>0.72248321870761623</v>
       </c>
       <c r="AL13" s="0">
         <v>0</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="AT13" s="0">
-        <v>0.5586983527733913</v>
+        <v>0.95599023977272557</v>
       </c>
       <c r="AU13" s="0">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="BP13" s="0">
-        <v>0.634437916570324</v>
+        <v>0.64514934139993207</v>
       </c>
     </row>
     <row r="14">
@@ -2977,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="BF14" s="0">
-        <v>0.61867426551668792</v>
+        <v>0.95148364487046266</v>
       </c>
       <c r="BG14" s="0">
         <v>0</v>
@@ -3463,13 +3463,13 @@
         <v>0.98786733439634822</v>
       </c>
       <c r="N17" s="0">
-        <v>0.78608946181811734</v>
+        <v>0.83986445102276286</v>
       </c>
       <c r="O17" s="0">
         <v>0</v>
       </c>
       <c r="P17" s="0">
-        <v>0.66610156430688516</v>
+        <v>0.69733574741330795</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
@@ -3693,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="V18" s="0">
-        <v>0.77553201441433806</v>
+        <v>0.98181471047235092</v>
       </c>
       <c r="W18" s="0">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="0">
-        <v>0.69579896546826381</v>
+        <v>0.9154585480550983</v>
       </c>
       <c r="AD18" s="0">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="AA20" s="0">
-        <v>0.86333626268370567</v>
+        <v>0.86843099346119756</v>
       </c>
       <c r="AB20" s="0">
         <v>0</v>
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="BI20" s="0">
-        <v>0.52154406276137821</v>
+        <v>0.80414002261487405</v>
       </c>
       <c r="BJ20" s="0">
         <v>0</v>
@@ -4260,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="0">
-        <v>0.63731578543273526</v>
+        <v>0.76606715786392388</v>
       </c>
       <c r="F21" s="0">
         <v>0</v>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>0.59464539207506573</v>
+        <v>0.93539002729111342</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="AX21" s="0">
-        <v>0.50959058667691248</v>
+        <v>0.65543904172278811</v>
       </c>
       <c r="AY21" s="0">
         <v>0</v>
@@ -4413,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="BD21" s="0">
-        <v>0.80563455970062292</v>
+        <v>0.80959521433646953</v>
       </c>
       <c r="BE21" s="0">
         <v>0</v>
@@ -4541,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="AD22" s="0">
-        <v>0.62227264188584819</v>
+        <v>0.79917959871674471</v>
       </c>
       <c r="AE22" s="0">
         <v>0</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="BJ22" s="0">
-        <v>0.57731567062906808</v>
+        <v>0.81697071655984754</v>
       </c>
       <c r="BK22" s="0">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>0.60075380827460212</v>
+        <v>0.60309862927422864</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5007,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="AV24" s="0">
-        <v>0.91267714603510774</v>
+        <v>0.92675833473331415</v>
       </c>
       <c r="AW24" s="0">
         <v>0</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="S25" s="0">
-        <v>0.76934585652391352</v>
+        <v>0.80364506935476532</v>
       </c>
       <c r="T25" s="0">
         <v>0</v>
@@ -5392,7 +5392,7 @@
         <v>0</v>
       </c>
       <c r="AM26" s="0">
-        <v>0.78245650500395658</v>
+        <v>0.85117183929857987</v>
       </c>
       <c r="AN26" s="0">
         <v>0</v>
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="0">
-        <v>0.84092921068102888</v>
+        <v>0.94095543709559415</v>
       </c>
       <c r="O27" s="0">
         <v>0</v>
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="AE27" s="0">
-        <v>0.77934396178047638</v>
+        <v>0.99074084763046288</v>
       </c>
       <c r="AF27" s="0">
         <v>0</v>
@@ -5595,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="AL27" s="0">
-        <v>0.67263927700395665</v>
+        <v>0.68033256232679085</v>
       </c>
       <c r="AM27" s="0">
         <v>0</v>
@@ -5655,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="BF27" s="0">
-        <v>0.71262278181204175</v>
+        <v>0.76515647726864744</v>
       </c>
       <c r="BG27" s="0">
         <v>0</v>
@@ -5789,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="AH28" s="0">
-        <v>0.55438759721779729</v>
+        <v>0.5802046358409273</v>
       </c>
       <c r="AI28" s="0">
         <v>0</v>
@@ -5941,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="0">
-        <v>0.72955762461237583</v>
+        <v>0.88918122495868401</v>
       </c>
       <c r="Q29" s="0">
         <v>0</v>
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="AB29" s="0">
-        <v>0.552449285939702</v>
+        <v>0.94181490958186387</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="AS29" s="0">
-        <v>0.93422316538517136</v>
+        <v>0.98492320502886499</v>
       </c>
       <c r="AT29" s="0">
         <v>0</v>
@@ -6079,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="BJ29" s="0">
-        <v>0.77318101596469191</v>
+        <v>0.89245150680293173</v>
       </c>
       <c r="BK29" s="0">
         <v>0.74606689396163395</v>
@@ -6141,13 +6141,13 @@
         <v>0</v>
       </c>
       <c r="N30" s="0">
-        <v>0.67221116259856273</v>
+        <v>0.9051544707556759</v>
       </c>
       <c r="O30" s="0">
         <v>0</v>
       </c>
       <c r="P30" s="0">
-        <v>0.7171214935873379</v>
+        <v>0.73135118714557867</v>
       </c>
       <c r="Q30" s="0">
         <v>0</v>
@@ -6210,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="AK30" s="0">
-        <v>0.79746876712663695</v>
+        <v>0.97895565887007896</v>
       </c>
       <c r="AL30" s="0">
         <v>0</v>
@@ -6574,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="0">
-        <v>0.6549428735774866</v>
+        <v>0.89109608177281285</v>
       </c>
       <c r="V32" s="0">
         <v>0</v>
@@ -6583,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="0">
-        <v>0.62853747838914187</v>
+        <v>0.83460211007016194</v>
       </c>
       <c r="Y32" s="0">
         <v>0</v>
@@ -6622,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="AK32" s="0">
-        <v>0.71973705016101497</v>
+        <v>0.83027068312663532</v>
       </c>
       <c r="AL32" s="0">
         <v>0</v>
@@ -6637,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="AP32" s="0">
-        <v>0.93955129396091031</v>
+        <v>0.99387310058384026</v>
       </c>
       <c r="AQ32" s="0">
         <v>0</v>
@@ -6709,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="BN32" s="0">
-        <v>0.5333712220120066</v>
+        <v>0.91469168328039951</v>
       </c>
       <c r="BO32" s="0">
         <v>0</v>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>0.6120843187971523</v>
+        <v>0.71092525583303523</v>
       </c>
       <c r="AF33" s="0">
         <v>0</v>
@@ -6819,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0.55895670893216698</v>
+        <v>0.59616578078752913</v>
       </c>
       <c r="AI33" s="0">
         <v>0.7051880782500477</v>
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="BL34" s="0">
-        <v>0.87681235401679958</v>
+        <v>0.95023912708241887</v>
       </c>
       <c r="BM34" s="0">
         <v>0.89148779189832106</v>
@@ -7183,13 +7183,13 @@
         <v>0</v>
       </c>
       <c r="R35" s="0">
-        <v>0.85069212447468412</v>
+        <v>0.92620084763253874</v>
       </c>
       <c r="S35" s="0">
         <v>0</v>
       </c>
       <c r="T35" s="0">
-        <v>0.70536419083655411</v>
+        <v>0.9372112372288266</v>
       </c>
       <c r="U35" s="0">
         <v>0</v>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0.61495322109644035</v>
+        <v>0.7051880782500477</v>
       </c>
       <c r="AH35" s="0">
         <v>0</v>
@@ -7270,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="AU35" s="0">
-        <v>0.64929848359578068</v>
+        <v>0.75250965353585419</v>
       </c>
       <c r="AV35" s="0">
         <v>0</v>
@@ -7574,7 +7574,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="0">
-        <v>0.71298246914626018</v>
+        <v>0.91811297683924975</v>
       </c>
       <c r="L37" s="0">
         <v>0</v>
@@ -7816,7 +7816,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="0">
-        <v>0.91331059531763115</v>
+        <v>0.98385375198927572</v>
       </c>
       <c r="X38" s="0">
         <v>0</v>
@@ -7870,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="AO38" s="0">
-        <v>0.60019878288468143</v>
+        <v>0.83227482352318405</v>
       </c>
       <c r="AP38" s="0">
         <v>0</v>
@@ -7956,7 +7956,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.55967161501947493</v>
+        <v>0.82797711191323697</v>
       </c>
       <c r="B39" s="0">
         <v>0</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="AI39" s="0">
-        <v>0.52951775193476913</v>
+        <v>0.7970086882241979</v>
       </c>
       <c r="AJ39" s="0">
         <v>0</v>
@@ -8201,7 +8201,7 @@
         <v>0</v>
       </c>
       <c r="N40" s="0">
-        <v>0.53742648287476724</v>
+        <v>0.90602254115415792</v>
       </c>
       <c r="O40" s="0">
         <v>0</v>
@@ -8437,10 +8437,10 @@
         <v>0</v>
       </c>
       <c r="X41" s="0">
-        <v>0.53999775996890098</v>
+        <v>0.5600394915564415</v>
       </c>
       <c r="Y41" s="0">
-        <v>0.5957736750140511</v>
+        <v>0.83512608846959646</v>
       </c>
       <c r="Z41" s="0">
         <v>0</v>
@@ -8476,13 +8476,13 @@
         <v>0</v>
       </c>
       <c r="AK41" s="0">
-        <v>0.54437748219099513</v>
+        <v>0.62384862187442702</v>
       </c>
       <c r="AL41" s="0">
         <v>0.83227482352318405</v>
       </c>
       <c r="AM41" s="0">
-        <v>0.78338410777898049</v>
+        <v>0.80388040833998242</v>
       </c>
       <c r="AN41" s="0">
         <v>0</v>
@@ -8616,7 +8616,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="0">
-        <v>0.53984115252556431</v>
+        <v>0.90451469557783282</v>
       </c>
       <c r="P42" s="0">
         <v>0</v>
@@ -8658,7 +8658,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="0">
-        <v>0.77126110492935385</v>
+        <v>0.97134081830867147</v>
       </c>
       <c r="AD42" s="0">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="BM42" s="0">
-        <v>0.60726991116090845</v>
+        <v>0.73643443732097502</v>
       </c>
       <c r="BN42" s="0">
         <v>0</v>
@@ -8879,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="AH43" s="0">
-        <v>0.63240329612646806</v>
+        <v>0.72192677776569836</v>
       </c>
       <c r="AI43" s="0">
         <v>0</v>
@@ -8915,7 +8915,7 @@
         <v>0</v>
       </c>
       <c r="AT43" s="0">
-        <v>0.51250652808160213</v>
+        <v>0.8052203144487925</v>
       </c>
       <c r="AU43" s="0">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="AY43" s="0">
-        <v>0.52485693108147402</v>
+        <v>0.99494607030714277</v>
       </c>
       <c r="AZ43" s="0">
         <v>0</v>
@@ -9118,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>0.82885631074947919</v>
+        <v>0.99733242913753584</v>
       </c>
       <c r="AT44" s="0">
         <v>0</v>
@@ -9297,7 +9297,7 @@
         <v>0</v>
       </c>
       <c r="AJ45" s="0">
-        <v>0.72485714612937535</v>
+        <v>0.89526485103708298</v>
       </c>
       <c r="AK45" s="0">
         <v>0</v>
@@ -9446,7 +9446,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="0">
-        <v>0.56326347369419183</v>
+        <v>0.90808159593845972</v>
       </c>
       <c r="R46" s="0">
         <v>0</v>
@@ -9763,7 +9763,7 @@
         <v>0</v>
       </c>
       <c r="BB47" s="0">
-        <v>0.68983684463363182</v>
+        <v>0.8163446256834801</v>
       </c>
       <c r="BC47" s="0">
         <v>0</v>
@@ -9834,7 +9834,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="0">
-        <v>0.5710624044742808</v>
+        <v>0.59031572607854277</v>
       </c>
       <c r="J48" s="0">
         <v>0</v>
@@ -9843,7 +9843,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="0">
-        <v>0.52223985413551555</v>
+        <v>0.59956040981701508</v>
       </c>
       <c r="M48" s="0">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="BB48" s="0">
-        <v>0.6300011398120724</v>
+        <v>0.82776191897370222</v>
       </c>
       <c r="BC48" s="0">
         <v>0</v>
@@ -10025,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="0">
-        <v>0.53128052191278563</v>
+        <v>0.78642651342466918</v>
       </c>
       <c r="E49" s="0">
         <v>0</v>
@@ -10058,7 +10058,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="0">
-        <v>0.51347637269360347</v>
+        <v>0.71364519307832308</v>
       </c>
       <c r="P49" s="0">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="AJ49" s="0">
-        <v>0.6369249564528694</v>
+        <v>0.68312369504757531</v>
       </c>
       <c r="AK49" s="0">
         <v>0</v>
@@ -10393,7 +10393,7 @@
         <v>0</v>
       </c>
       <c r="BF50" s="0">
-        <v>0.58652176955088264</v>
+        <v>0.71103382268252635</v>
       </c>
       <c r="BG50" s="0">
         <v>0</v>
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="0">
-        <v>0.57649586959184873</v>
+        <v>0.84410566978133095</v>
       </c>
       <c r="D52" s="0">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="T52" s="0">
-        <v>0.57934619871226789</v>
+        <v>0.9907503054867941</v>
       </c>
       <c r="U52" s="0">
         <v>0</v>
@@ -10751,7 +10751,7 @@
         <v>0</v>
       </c>
       <c r="AN52" s="0">
-        <v>0.53791162538165405</v>
+        <v>0.6574810332830261</v>
       </c>
       <c r="AO52" s="0">
         <v>0</v>
@@ -10805,7 +10805,7 @@
         <v>0</v>
       </c>
       <c r="BF52" s="0">
-        <v>0.5292446678610645</v>
+        <v>0.81165848433272303</v>
       </c>
       <c r="BG52" s="0">
         <v>0</v>
@@ -10906,7 +10906,7 @@
         <v>0</v>
       </c>
       <c r="W53" s="0">
-        <v>0.56721162538793157</v>
+        <v>0.75280551669852191</v>
       </c>
       <c r="X53" s="0">
         <v>0</v>
@@ -10957,7 +10957,7 @@
         <v>0</v>
       </c>
       <c r="AN53" s="0">
-        <v>0.56138402010763466</v>
+        <v>0.69892208045457149</v>
       </c>
       <c r="AO53" s="0">
         <v>0</v>
@@ -11041,12 +11041,12 @@
         <v>0</v>
       </c>
       <c r="BP53" s="0">
-        <v>0.69017120382794528</v>
+        <v>0.94799752397784731</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0.5427576027819816</v>
+        <v>0.56126316181239022</v>
       </c>
       <c r="B54" s="0">
         <v>0</v>
@@ -11115,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="X54" s="0">
-        <v>0.61690410421618402</v>
+        <v>0.65598489296712892</v>
       </c>
       <c r="Y54" s="0">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="V55" s="0">
-        <v>0.81584804451072812</v>
+        <v>0.82477677474606348</v>
       </c>
       <c r="W55" s="0">
         <v>0</v>
@@ -11363,7 +11363,7 @@
         <v>0</v>
       </c>
       <c r="AL55" s="0">
-        <v>0.63333313492506949</v>
+        <v>0.68493276864483665</v>
       </c>
       <c r="AM55" s="0">
         <v>0</v>
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="AS55" s="0">
-        <v>0.59425713298433069</v>
+        <v>0.77137685236483899</v>
       </c>
       <c r="AT55" s="0">
         <v>0</v>
@@ -11429,7 +11429,7 @@
         <v>0</v>
       </c>
       <c r="BH55" s="0">
-        <v>0.66746992960979123</v>
+        <v>0.70722011373640059</v>
       </c>
       <c r="BI55" s="0">
         <v>0</v>
@@ -11557,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="AH56" s="0">
-        <v>0.52015910015834455</v>
+        <v>0.63966277614223244</v>
       </c>
       <c r="AI56" s="0">
         <v>0</v>
@@ -11587,13 +11587,13 @@
         <v>0</v>
       </c>
       <c r="AR56" s="0">
-        <v>0.9079470771325111</v>
+        <v>0.91886078228089407</v>
       </c>
       <c r="AS56" s="0">
         <v>0</v>
       </c>
       <c r="AT56" s="0">
-        <v>0.51362943667629701</v>
+        <v>0.84086225307732765</v>
       </c>
       <c r="AU56" s="0">
         <v>0</v>
@@ -11718,7 +11718,7 @@
         <v>0</v>
       </c>
       <c r="S57" s="0">
-        <v>0.54419663558183562</v>
+        <v>0.99509760704204031</v>
       </c>
       <c r="T57" s="0">
         <v>0</v>
@@ -11745,7 +11745,7 @@
         <v>0</v>
       </c>
       <c r="AB57" s="0">
-        <v>0.56812382312718834</v>
+        <v>0.9653548853643551</v>
       </c>
       <c r="AC57" s="0">
         <v>0</v>
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="0">
-        <v>0.60664470275297555</v>
+        <v>0.79052418733727414</v>
       </c>
       <c r="G58" s="0">
         <v>0</v>
@@ -12038,7 +12038,7 @@
         <v>0</v>
       </c>
       <c r="BE58" s="0">
-        <v>0.71226591615248691</v>
+        <v>0.85433330953556186</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
@@ -12097,7 +12097,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="0">
-        <v>0.50757193849790738</v>
+        <v>0.54388199685214333</v>
       </c>
       <c r="I59" s="0">
         <v>0</v>
@@ -12253,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0.75859614022340027</v>
+        <v>0.98449157295030942</v>
       </c>
       <c r="BI59" s="0">
         <v>0</v>
@@ -12297,7 +12297,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="0">
-        <v>0.81829268984835979</v>
+        <v>0.89802538701520318</v>
       </c>
       <c r="G60" s="0">
         <v>0</v>
@@ -12402,7 +12402,7 @@
         <v>0</v>
       </c>
       <c r="AO60" s="0">
-        <v>0.63618219295627154</v>
+        <v>0.8626856664703858</v>
       </c>
       <c r="AP60" s="0">
         <v>0</v>
@@ -12480,7 +12480,7 @@
         <v>0</v>
       </c>
       <c r="BO60" s="0">
-        <v>0.67613809448023043</v>
+        <v>0.92783211565454038</v>
       </c>
       <c r="BP60" s="0">
         <v>0</v>
@@ -12602,7 +12602,7 @@
         <v>0</v>
       </c>
       <c r="AM61" s="0">
-        <v>0.6372248890928518</v>
+        <v>0.84228400290325067</v>
       </c>
       <c r="AN61" s="0">
         <v>0</v>
@@ -12975,7 +12975,7 @@
         <v>0</v>
       </c>
       <c r="Z63" s="0">
-        <v>0.69122588645917005</v>
+        <v>0.92939651401379964</v>
       </c>
       <c r="AA63" s="0">
         <v>0</v>
@@ -12984,10 +12984,10 @@
         <v>0</v>
       </c>
       <c r="AC63" s="0">
-        <v>0.6744311235914604</v>
+        <v>0.74606689396163395</v>
       </c>
       <c r="AD63" s="0">
-        <v>0.59912231937347493</v>
+        <v>0.98599920461972101</v>
       </c>
       <c r="AE63" s="0">
         <v>0</v>
@@ -13041,7 +13041,7 @@
         <v>0</v>
       </c>
       <c r="AV63" s="0">
-        <v>0.65705789796656133</v>
+        <v>0.99343749441433826</v>
       </c>
       <c r="AW63" s="0">
         <v>0</v>
@@ -13184,7 +13184,7 @@
         <v>0</v>
       </c>
       <c r="AA64" s="0">
-        <v>0.62461678841926327</v>
+        <v>0.83701457405391544</v>
       </c>
       <c r="AB64" s="0">
         <v>0</v>
@@ -13301,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>0.5006198868295505</v>
+        <v>0.87295659899744238</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13411,7 +13411,7 @@
         <v>0</v>
       </c>
       <c r="AH65" s="0">
-        <v>0.85825783148045698</v>
+        <v>0.89148779189832106</v>
       </c>
       <c r="AI65" s="0">
         <v>0</v>
@@ -13668,7 +13668,7 @@
         <v>0</v>
       </c>
       <c r="AY66" s="0">
-        <v>0.83222965168137975</v>
+        <v>0.91827866376990563</v>
       </c>
       <c r="AZ66" s="0">
         <v>0</v>
@@ -13727,7 +13727,7 @@
         <v>0</v>
       </c>
       <c r="B67" s="0">
-        <v>0.63491914903306723</v>
+        <v>0.8716787027593691</v>
       </c>
       <c r="C67" s="0">
         <v>0</v>
@@ -13739,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="0">
-        <v>0.71410171671827571</v>
+        <v>0.99506994792473558</v>
       </c>
       <c r="G67" s="0">
         <v>0</v>
@@ -13910,7 +13910,7 @@
         <v>0</v>
       </c>
       <c r="BK67" s="0">
-        <v>0.7919837413526607</v>
+        <v>0.86401003029878654</v>
       </c>
       <c r="BL67" s="0">
         <v>0</v>
@@ -13919,7 +13919,7 @@
         <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>0.72597955544409787</v>
+        <v>0.75454889086510335</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
@@ -13975,7 +13975,7 @@
         <v>0</v>
       </c>
       <c r="P68" s="0">
-        <v>0.62997586596457822</v>
+        <v>0.87701426959868589</v>
       </c>
       <c r="Q68" s="0">
         <v>0</v>
@@ -14011,7 +14011,7 @@
         <v>0</v>
       </c>
       <c r="AB68" s="0">
-        <v>0.53796025055475238</v>
+        <v>0.58622123079971833</v>
       </c>
       <c r="AC68" s="0">
         <v>0</v>
@@ -14023,7 +14023,7 @@
         <v>0</v>
       </c>
       <c r="AF68" s="0">
-        <v>0.51966706103848059</v>
+        <v>0.95414669999341717</v>
       </c>
       <c r="AG68" s="0">
         <v>0</v>
